--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>리본 키링1</t>
+          <t>리본 키링</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -519,7 +519,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>리본 키링1</t>
+          <t>리본 키링</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -539,7 +539,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>리본 키링1</t>
+          <t>리본 키링</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -902,7 +902,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>리본 키링1</t>
+          <t>리본 키링</t>
         </is>
       </c>
     </row>
